--- a/BegingMaven/Cadbury.xlsx
+++ b/BegingMaven/Cadbury.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC305CA-2013-439E-B19A-44C8A0C5E998}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FCDC51-F4F3-472C-AC73-10648B94AF71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{03A70854-019E-41A6-B57C-3A9AB1FEFA3A}"/>
   </bookViews>
@@ -25,31 +25,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>vojevas277@oniecan.com</t>
+    <t>shubhamparwani1313@gmail.com</t>
   </si>
   <si>
-    <t>himavey292@huvacliq.com</t>
-  </si>
-  <si>
-    <t>darihoj547@asoflex.com</t>
-  </si>
-  <si>
-    <t>kagih23992@huvacliq.com</t>
+    <t>bharat102329765@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -68,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,15 +76,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -400,94 +426,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBDF728-EA13-4730-8F69-E9F21BC29EFB}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1192802</v>
+      <c r="B1" s="3">
+        <v>1291216</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1192805</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1192811</v>
+      <c r="B2" s="3">
+        <v>1291177</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1192820</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1192841</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1192844</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>1193099</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>1193102</v>
-      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{42D29297-C771-4A28-9D97-FA2335C32E07}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{DB9C9C92-56AC-41E4-8DEE-F865DB376AD0}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{17B97AAB-FAA0-4BF4-A845-ADFB098FE8E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>